--- a/表格转图形.xlsx
+++ b/表格转图形.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19740" tabRatio="500"/>
+    <workbookView minimized="1" xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19740" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -374,8 +374,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -399,7 +407,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="21">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
@@ -407,12 +415,20 @@
     <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -3611,8 +3627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
